--- a/test/slope_normalization/slope_normalization_test_output.xlsx
+++ b/test/slope_normalization/slope_normalization_test_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,2553 +469,2531 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-01</t>
+          <t>2022-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.000235244</v>
+        <v>0.000334165</v>
       </c>
       <c r="C2" t="n">
-        <v>0.000229741</v>
+        <v>0.000329191</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0001997157306438695</v>
+        <v>0.0002679798819084184</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9689917078508693</v>
+        <v>0.9293689819276465</v>
       </c>
       <c r="F2" t="n">
-        <v>0.96901680008076</v>
+        <v>0.9293896957646928</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-02</t>
+          <t>2022-07</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.000219136</v>
+        <v>0.000316309</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000214644</v>
+        <v>0.000313162</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0001865709741356579</v>
+        <v>0.0002546446245606605</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9522127700634986</v>
+        <v>0.9629654914481928</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9522279003043954</v>
+        <v>0.9629749416417263</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-03</t>
+          <t>2022-08</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.000191977</v>
+        <v>0.000307203</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000188599</v>
+        <v>0.000305671</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001639140499357237</v>
+        <v>0.0002482733755398285</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8750413970972614</v>
+        <v>1.009369342244816</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8750483308653135</v>
+        <v>1.009370346514574</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-04</t>
+          <t>2022-09</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.000186754</v>
+        <v>0.000298527</v>
       </c>
       <c r="C5" t="n">
-        <v>0.000184011</v>
+        <v>0.000298527</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0001599092269013983</v>
+        <v>0.0002421977174380582</v>
       </c>
       <c r="E5" t="n">
-        <v>0.888419548188208</v>
+        <v>1.046125365123627</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8884210311132951</v>
+        <v>1.046120104947815</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-05</t>
+          <t>2022-10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.000223886</v>
+        <v>0.000290721</v>
       </c>
       <c r="C6" t="n">
-        <v>0.000221251</v>
+        <v>0.000292178</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0001922503677768846</v>
+        <v>0.0002367797544677461</v>
       </c>
       <c r="E6" t="n">
-        <v>1.106606999083707</v>
+        <v>1.075813196343176</v>
       </c>
       <c r="F6" t="n">
-        <v>1.106603506372827</v>
+        <v>1.075803585747267</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-06</t>
+          <t>2022-11</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.000220868</v>
+        <v>0.000258778</v>
       </c>
       <c r="C7" t="n">
-        <v>0.000218916</v>
+        <v>0.000261379</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0001901996317039245</v>
+        <v>0.0002115812832840122</v>
       </c>
       <c r="E7" t="n">
-        <v>1.129745462850682</v>
+        <v>1.002842220523855</v>
       </c>
       <c r="F7" t="n">
-        <v>1.129737788871845</v>
+        <v>1.002830937019458</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-07</t>
+          <t>2022-12</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.000213672</v>
+        <v>0.000277715</v>
       </c>
       <c r="C8" t="n">
-        <v>0.000212411</v>
+        <v>0.000281912</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0001845275090233459</v>
+        <v>0.0002279454696919372</v>
       </c>
       <c r="E8" t="n">
-        <v>1.127015743493615</v>
+        <v>1.119231652089665</v>
       </c>
       <c r="F8" t="n">
-        <v>1.127005098852119</v>
+        <v>1.119217776450041</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-08</t>
+          <t>2022-13</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.000204142</v>
+        <v>0.000269452</v>
       </c>
       <c r="C9" t="n">
-        <v>0.000203539</v>
+        <v>0.000274895</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001768000975630727</v>
+        <v>0.0002220213668001376</v>
       </c>
       <c r="E9" t="n">
-        <v>1.106806952652354</v>
+        <v>1.122739911357767</v>
       </c>
       <c r="F9" t="n">
-        <v>1.106794459625287</v>
+        <v>1.12272566034234</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-09</t>
+          <t>2022-14</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.000199783</v>
+        <v>0.000249327</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000199783</v>
+        <v>0.000255638</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0001735183048874528</v>
+        <v>0.0002062359657351289</v>
       </c>
       <c r="E10" t="n">
-        <v>1.110269955698179</v>
+        <v>1.068851528790272</v>
       </c>
       <c r="F10" t="n">
-        <v>1.110256112891524</v>
+        <v>1.068838289280802</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-10</t>
+          <t>2022-15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.000195681</v>
+        <v>0.000226992</v>
       </c>
       <c r="C11" t="n">
-        <v>0.000196261</v>
+        <v>0.000233904</v>
       </c>
       <c r="D11" t="n">
-        <v>0.000170440208234502</v>
+        <v>0.000188489593315789</v>
       </c>
       <c r="E11" t="n">
-        <v>1.111877546865004</v>
+        <v>0.9970729905278174</v>
       </c>
       <c r="F11" t="n">
-        <v>1.111862968209004</v>
+        <v>0.9970613562440914</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-11</t>
+          <t>2022-16</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.000173451</v>
+        <v>0.000216062</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000174481</v>
+        <v>0.000223758</v>
       </c>
       <c r="D12" t="n">
-        <v>0.000151508443322479</v>
+        <v>0.0001801096368916599</v>
       </c>
       <c r="E12" t="n">
-        <v>1.005427242712953</v>
+        <v>0.9691031890630956</v>
       </c>
       <c r="F12" t="n">
-        <v>1.005413845870765</v>
+        <v>0.9690928364147705</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-12</t>
+          <t>2022-17</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.00018643</v>
+        <v>0.000210837</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000188092</v>
+        <v>0.000219441</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0001633098795831561</v>
+        <v>0.0001764359660070377</v>
       </c>
       <c r="E13" t="n">
-        <v>1.100243918838788</v>
+        <v>0.9628588993431316</v>
       </c>
       <c r="F13" t="n">
-        <v>1.100229400766107</v>
+        <v>0.9628497157420473</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-13</t>
+          <t>2022-18</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.000184911</v>
+        <v>0.000227141</v>
       </c>
       <c r="C14" t="n">
-        <v>0.000187112</v>
+        <v>0.000237594</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0001624411432134183</v>
+        <v>0.0001908172171375343</v>
       </c>
       <c r="E14" t="n">
-        <v>1.109082619321642</v>
+        <v>1.053628040524997</v>
       </c>
       <c r="F14" t="n">
-        <v>1.109068424371429</v>
+        <v>1.053619280548596</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-14</t>
+          <t>2022-19</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.000170437</v>
+        <v>0.000217962</v>
       </c>
       <c r="C15" t="n">
-        <v>0.000172977</v>
+        <v>0.000229136</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0001501529268930659</v>
+        <v>0.0001838165207031035</v>
       </c>
       <c r="E15" t="n">
-        <v>1.037304120285812</v>
+        <v>1.024873465120994</v>
       </c>
       <c r="F15" t="n">
-        <v>1.037291467811026</v>
+        <v>1.024866219359078</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-15</t>
+          <t>2022-20</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.000161397</v>
+        <v>0.000180642</v>
       </c>
       <c r="C16" t="n">
-        <v>0.000164288</v>
+        <v>0.000190855</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0001425942488861778</v>
+        <v>0.0001529340617102859</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9953299064112952</v>
+        <v>0.8595476836421185</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9953185166486916</v>
+        <v>0.8595426580354665</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-16</t>
+          <t>2022-21</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.000151835</v>
+        <v>0.000171881</v>
       </c>
       <c r="C17" t="n">
-        <v>0.000155013</v>
+        <v>0.000182509</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0001345287406674207</v>
+        <v>0.0001460814579019376</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9476067418021538</v>
+        <v>0.8264646668887552</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9475967169778488</v>
+        <v>0.8264608044807564</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-17</t>
+          <t>2022-22</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.000149525</v>
+        <v>0.000178947</v>
       </c>
       <c r="C18" t="n">
-        <v>0.000153107</v>
+        <v>0.000190964</v>
       </c>
       <c r="D18" t="n">
-        <v>0.000132859809389698</v>
+        <v>0.0001526769155358249</v>
       </c>
       <c r="E18" t="n">
-        <v>0.943343002510853</v>
+        <v>0.8684591258480909</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9433339081242194</v>
+        <v>0.8684560267416269</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-18</t>
+          <t>2022-23</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.000161213</v>
+        <v>0.000194813</v>
       </c>
       <c r="C19" t="n">
-        <v>0.000165564</v>
+        <v>0.000208937</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0001436535969366066</v>
+        <v>0.0001668586104604379</v>
       </c>
       <c r="E19" t="n">
-        <v>1.027125440327735</v>
+        <v>0.9533196758569621</v>
       </c>
       <c r="F19" t="n">
-        <v>1.027116548813707</v>
+        <v>0.9533172510904792</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-19</t>
+          <t>2022-24</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.000147498</v>
+        <v>0.000167136</v>
       </c>
       <c r="C20" t="n">
-        <v>0.000151927</v>
+        <v>0.000180152</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0001318072221913592</v>
+        <v>0.0001437084897294734</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9481837133584897</v>
+        <v>0.823993119213801</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9481764588477251</v>
+        <v>0.8239917973110351</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-20</t>
+          <t>2022-25</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.00012911</v>
+        <v>0.000182124</v>
       </c>
       <c r="C21" t="n">
-        <v>0.000133381</v>
+        <v>0.000197291</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0001157043236585047</v>
+        <v>0.0001572031825854582</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8367709999608205</v>
+        <v>0.9039612578183586</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8367654418758909</v>
+        <v>0.9039605774099464</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2022-21</t>
+          <t>2022-26</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.000126274</v>
+        <v>0.00020064</v>
       </c>
       <c r="C22" t="n">
-        <v>0.000130838</v>
+        <v>0.000218439</v>
       </c>
       <c r="D22" t="n">
-        <v>0.000113485473966648</v>
+        <v>0.0001738574901974597</v>
       </c>
       <c r="E22" t="n">
-        <v>0.824510155222771</v>
+        <v>1.00201582274271</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8245055002142512</v>
+        <v>1.002015834953403</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2022-22</t>
+          <t>2022-27</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.00013018</v>
+        <v>0.00017163</v>
       </c>
       <c r="C23" t="n">
-        <v>0.000135285</v>
+        <v>0.000187791</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0001173295043697027</v>
+        <v>0.0001492969109543221</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8558349588545699</v>
+        <v>0.8620080715739403</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8558309593649913</v>
+        <v>0.8620086692468327</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2022-23</t>
+          <t>2022-28</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.000134088</v>
+        <v>0.000179143</v>
       </c>
       <c r="C24" t="n">
-        <v>0.000139759</v>
+        <v>0.000196994</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0001211963422769286</v>
+        <v>0.0001564368977855694</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8870690915761433</v>
+        <v>0.9044827273569107</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8870657796064454</v>
+        <v>0.9044838987310392</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2022-24</t>
+          <t>2022-29</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.000124766</v>
+        <v>0.000197228</v>
       </c>
       <c r="C25" t="n">
-        <v>0.000130429</v>
+        <v>0.000217969</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0001130921557692604</v>
+        <v>0.0001728978750948279</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8301759467870813</v>
+        <v>1.000694532318924</v>
       </c>
       <c r="F25" t="n">
-        <v>0.830173594233108</v>
+        <v>1.000696356045175</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2022-25</t>
+          <t>2022-30</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.000132047</v>
+        <v>0.000206956</v>
       </c>
       <c r="C26" t="n">
-        <v>0.000138449</v>
+        <v>0.000229866</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0001200332045514315</v>
+        <v>0.0001821297283045357</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8833177564812418</v>
+        <v>1.054916288500898</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8833160086716628</v>
+        <v>1.054918694798929</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2022-26</t>
+          <t>2022-31</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.000146856</v>
+        <v>0.000192022</v>
       </c>
       <c r="C27" t="n">
-        <v>0.000154432</v>
+        <v>0.000214348</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0001338755252495889</v>
+        <v>0.0001696428419695281</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9872424374259597</v>
+        <v>0.9830889852890349</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9872412807491694</v>
+        <v>0.9830916165091936</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2022-27</t>
+          <t>2022-32</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.000126893</v>
+        <v>0.000200871</v>
       </c>
       <c r="C28" t="n">
-        <v>0.000133835</v>
+        <v>0.000225349</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0001160068912999849</v>
+        <v>0.0001781490558780481</v>
       </c>
       <c r="E28" t="n">
-        <v>0.8569615961102124</v>
+        <v>1.032696822522912</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8569612407298629</v>
+        <v>1.032699935550818</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2022-28</t>
+          <t>2022-33</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.000127169</v>
+        <v>0.000189894</v>
       </c>
       <c r="C29" t="n">
-        <v>0.000134523</v>
+        <v>0.000214102</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0001165907271850249</v>
+        <v>0.0001690671606147519</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8625038783415113</v>
+        <v>0.9801821195587758</v>
       </c>
       <c r="F29" t="n">
-        <v>0.862504129361365</v>
+        <v>0.9801853546095168</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2022-29</t>
+          <t>2022-34</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.000147953</v>
+        <v>0.00018993</v>
       </c>
       <c r="C30" t="n">
-        <v>0.000156973</v>
+        <v>0.000215216</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0001360326509409307</v>
+        <v>0.0001697552901657529</v>
       </c>
       <c r="E30" t="n">
-        <v>1.007486059615505</v>
+        <v>0.9841633316349834</v>
       </c>
       <c r="F30" t="n">
-        <v>1.007487012049455</v>
+        <v>0.9841668152567812</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2022-30</t>
+          <t>2022-35</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.000146157</v>
+        <v>0.000163076</v>
       </c>
       <c r="C31" t="n">
-        <v>0.000155528</v>
+        <v>0.000185713</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0001347645411594764</v>
+        <v>0.0001463192721718276</v>
       </c>
       <c r="E31" t="n">
-        <v>0.998994120246975</v>
+        <v>0.8481836819244233</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9989956673933931</v>
+        <v>0.8481868515976801</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2022-31</t>
+          <t>2022-36</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.00013735</v>
+        <v>0.00021513</v>
       </c>
       <c r="C32" t="n">
-        <v>0.000146588</v>
+        <v>0.000246221</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0001270051440935003</v>
+        <v>0.0001937734144014444</v>
       </c>
       <c r="E32" t="n">
-        <v>0.942115941240122</v>
+        <v>1.123010107921022</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9421179216036368</v>
+        <v>1.1230144842857</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2022-32</t>
+          <t>2022-37</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.000149315</v>
+        <v>0.000188274</v>
       </c>
       <c r="C33" t="n">
-        <v>0.000159831</v>
+        <v>0.000216564</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0001384626749282912</v>
+        <v>0.0001702414450354405</v>
       </c>
       <c r="E33" t="n">
-        <v>1.027605246892435</v>
+        <v>0.9863237203990848</v>
       </c>
       <c r="F33" t="n">
-        <v>1.02760792557058</v>
+        <v>0.9863276891577741</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2022-33</t>
+          <t>2022-38</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.000141025</v>
+        <v>0.000206394</v>
       </c>
       <c r="C34" t="n">
-        <v>0.000151405</v>
+        <v>0.000238597</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0001311481045349536</v>
+        <v>0.0001873500218791518</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9736218357286616</v>
+        <v>1.085031007949167</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9736248193046919</v>
+        <v>1.085035479569404</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2022-34</t>
+          <t>2022-39</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.000140786</v>
+        <v>0.000218791</v>
       </c>
       <c r="C35" t="n">
-        <v>0.000151595</v>
+        <v>0.000254195</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0001312991790712214</v>
+        <v>0.0001993736989164537</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9748940784276625</v>
+        <v>1.154157144356778</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9748974681255617</v>
+        <v>1.15416198332018</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2022-35</t>
+          <t>2022-40</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.000120799</v>
+        <v>0.000229871</v>
       </c>
       <c r="C36" t="n">
-        <v>0.00013046</v>
+        <v>0.000268407</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0001129802446605127</v>
+        <v>0.0002102830807037777</v>
       </c>
       <c r="E36" t="n">
-        <v>0.8388897865905391</v>
+        <v>1.216714496326974</v>
       </c>
       <c r="F36" t="n">
-        <v>0.838893013376765</v>
+        <v>1.216719656687607</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2022-36</t>
+          <t>2022-41</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.000157194</v>
+        <v>0.000227717</v>
       </c>
       <c r="C37" t="n">
-        <v>0.000170268</v>
+        <v>0.000267224</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0001474387933768917</v>
+        <v>0.0002091208484473001</v>
       </c>
       <c r="E37" t="n">
-        <v>1.094630551221109</v>
+        <v>1.209347257460768</v>
       </c>
       <c r="F37" t="n">
-        <v>1.094635121361678</v>
+        <v>1.20935242104328</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2022-37</t>
+          <t>2022-42</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.000138505</v>
+        <v>0.000195981</v>
       </c>
       <c r="C38" t="n">
-        <v>0.00015047</v>
+        <v>0.000231135</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0001302800406353159</v>
+        <v>0.0001806747992006032</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9670287281296229</v>
+        <v>1.044252652109058</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9670330457586643</v>
+        <v>1.044257122155176</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2022-38</t>
+          <t>2022-43</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.000151002</v>
+        <v>0.000205734</v>
       </c>
       <c r="C39" t="n">
-        <v>0.000164532</v>
+        <v>0.000243854</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0001424399341483745</v>
+        <v>0.000190401959755907</v>
       </c>
       <c r="E39" t="n">
-        <v>1.056954919907639</v>
+        <v>1.099818814467124</v>
       </c>
       <c r="F39" t="n">
-        <v>1.05695990667477</v>
+        <v>1.099823517399889</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2022-39</t>
+          <t>2022-44</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.000156484</v>
+        <v>0.000185902</v>
       </c>
       <c r="C40" t="n">
-        <v>0.000171011</v>
+        <v>0.000221451</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0001480320094950558</v>
+        <v>0.0001727154303512224</v>
       </c>
       <c r="E40" t="n">
-        <v>1.09800852567288</v>
+        <v>0.997038767948026</v>
       </c>
       <c r="F40" t="n">
-        <v>1.098013946388613</v>
+        <v>0.9970430134564792</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2022-40</t>
+          <t>2022-45</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.00016873</v>
+        <v>0.000194771</v>
       </c>
       <c r="C41" t="n">
-        <v>0.000184939</v>
+        <v>0.000233179</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0001600717279892475</v>
+        <v>0.0001816574040990949</v>
       </c>
       <c r="E41" t="n">
-        <v>1.186742232962855</v>
+        <v>1.047988089779116</v>
       </c>
       <c r="F41" t="n">
-        <v>1.186748313130169</v>
+        <v>1.047992521091982</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2022-41</t>
+          <t>2022-46</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.000163557</v>
+        <v>0.000185972</v>
       </c>
       <c r="C42" t="n">
-        <v>0.000179801</v>
+        <v>0.000223762</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0001556066287435338</v>
+        <v>0.0001741237870665303</v>
       </c>
       <c r="E42" t="n">
-        <v>1.153005938897871</v>
+        <v>1.00386723237584</v>
       </c>
       <c r="F42" t="n">
-        <v>1.153012026516362</v>
+        <v>1.003871437036129</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2022-42</t>
+          <t>2022-47</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.000145116</v>
+        <v>0.000186891</v>
       </c>
       <c r="C43" t="n">
-        <v>0.000160001</v>
+        <v>0.000225994</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0001384557152836096</v>
+        <v>0.0001756631487384419</v>
       </c>
       <c r="E43" t="n">
-        <v>1.025296104621386</v>
+        <v>1.012063036385649</v>
       </c>
       <c r="F43" t="n">
-        <v>1.025301649408358</v>
+        <v>1.012067225961724</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2022-43</t>
+          <t>2022-48</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.000154762</v>
+        <v>0.000200627</v>
       </c>
       <c r="C44" t="n">
-        <v>0.000171143</v>
+        <v>0.00024382</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0001480800502676562</v>
+        <v>0.0001893055677033155</v>
       </c>
       <c r="E44" t="n">
-        <v>1.09583748175171</v>
+        <v>1.089917972941813</v>
       </c>
       <c r="F44" t="n">
-        <v>1.095843519772873</v>
+        <v>1.08992242318698</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2022-44</t>
+          <t>2022-49</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.000139435</v>
+        <v>0.00020951</v>
       </c>
       <c r="C45" t="n">
-        <v>0.000154651</v>
+        <v>0.000255891</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0001337952365348489</v>
+        <v>0.0001984542928591538</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9894189884005006</v>
+        <v>1.141800148466962</v>
       </c>
       <c r="F45" t="n">
-        <v>0.989424516830871</v>
+        <v>1.141804738356822</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2022-45</t>
+          <t>2022-50</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.000140756</v>
+        <v>0.000215744</v>
       </c>
       <c r="C46" t="n">
-        <v>0.000156578</v>
+        <v>0.000264826</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0001354479380955518</v>
+        <v>0.0002051522102154817</v>
       </c>
       <c r="E46" t="n">
-        <v>1.000882537657134</v>
+        <v>1.179509159903074</v>
       </c>
       <c r="F46" t="n">
-        <v>1.00088818515658</v>
+        <v>1.17951381996198</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2022-46</t>
+          <t>2022-51</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.000137913</v>
+        <v>0.000242329</v>
       </c>
       <c r="C47" t="n">
-        <v>0.00015387</v>
+        <v>0.00029895</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0001330905802011358</v>
+        <v>0.0002313260790399442</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9826805407811671</v>
+        <v>1.329052621226495</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9826861189946894</v>
+        <v>1.329057773704098</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2022-47</t>
+          <t>2022-52</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.000144179</v>
+        <v>0.000270703</v>
       </c>
       <c r="C48" t="n">
-        <v>0.000161338</v>
+        <v>0.000335628</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0001395342275915774</v>
+        <v>0.000259414357056701</v>
       </c>
       <c r="E48" t="n">
-        <v>1.02940234401152</v>
+        <v>1.489366177847251</v>
       </c>
       <c r="F48" t="n">
-        <v>1.029408202493451</v>
+        <v>1.489371835097677</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2022-48</t>
+          <t>2023-01</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.000153571</v>
+        <v>0.000222539</v>
       </c>
       <c r="C49" t="n">
-        <v>0.000172357</v>
+        <v>0.000277295</v>
       </c>
       <c r="D49" t="n">
-        <v>0.000149047462568977</v>
+        <v>0.0002140862644250865</v>
       </c>
       <c r="E49" t="n">
-        <v>1.098639036418547</v>
+        <v>1.228242259236588</v>
       </c>
       <c r="F49" t="n">
-        <v>1.098645285325023</v>
+        <v>1.228246823762069</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2022-49</t>
+          <t>2023-02</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.000159584</v>
+        <v>0.000206655</v>
       </c>
       <c r="C50" t="n">
-        <v>0.000179636</v>
+        <v>0.000258793</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0001553249963721791</v>
+        <v>0.0001995769229005035</v>
       </c>
       <c r="E50" t="n">
-        <v>1.143894484504232</v>
+        <v>1.14417250483532</v>
       </c>
       <c r="F50" t="n">
-        <v>1.143900968158663</v>
+        <v>1.144176659274492</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2022-50</t>
+          <t>2023-03</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.000162474</v>
+        <v>0.000198286</v>
       </c>
       <c r="C51" t="n">
-        <v>0.000183431</v>
+        <v>0.000249558</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0001585887986486217</v>
+        <v>0.0001922375352409787</v>
       </c>
       <c r="E51" t="n">
-        <v>1.166865318939638</v>
+        <v>1.10129538779</v>
       </c>
       <c r="F51" t="n">
-        <v>1.166871891917456</v>
+        <v>1.101299289479022</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2022-51</t>
+          <t>2023-04</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.000186984</v>
+        <v>0.000183271</v>
       </c>
       <c r="C52" t="n">
-        <v>0.000211728</v>
+        <v>0.000231816</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0001830331329983045</v>
+        <v>0.0001783699210149897</v>
       </c>
       <c r="E52" t="n">
-        <v>1.345464170116468</v>
+        <v>1.021105073063005</v>
       </c>
       <c r="F52" t="n">
-        <v>1.345471683161771</v>
+        <v>1.02110859820464</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2022-52</t>
+          <t>2023-05</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.000204474</v>
+        <v>0.000189062</v>
       </c>
       <c r="C53" t="n">
-        <v>0.000232219</v>
+        <v>0.00024034</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0002007243182262261</v>
+        <v>0.0001847199707057014</v>
       </c>
       <c r="E53" t="n">
-        <v>1.474104380183788</v>
+        <v>1.056683168260688</v>
       </c>
       <c r="F53" t="n">
-        <v>1.474112520272422</v>
+        <v>1.05668671837641</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2023-01</t>
+          <t>2023-06</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.000179761</v>
+        <v>0.000182011</v>
       </c>
       <c r="C54" t="n">
-        <v>0.000204758</v>
+        <v>0.000232536</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0001769676993528208</v>
+        <v>0.000178520860606054</v>
       </c>
       <c r="E54" t="n">
-        <v>1.298376393881252</v>
+        <v>1.02047213068303</v>
       </c>
       <c r="F54" t="n">
-        <v>1.298383467828558</v>
+        <v>1.02047546282985</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2023-02</t>
+          <t>2023-07</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.000166502</v>
+        <v>0.000186031</v>
       </c>
       <c r="C55" t="n">
-        <v>0.000190217</v>
+        <v>0.000238863</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0001643821343690048</v>
+        <v>0.0001831717056315018</v>
       </c>
       <c r="E55" t="n">
-        <v>1.204849876778053</v>
+        <v>1.046287559039711</v>
       </c>
       <c r="F55" t="n">
-        <v>1.204856339219892</v>
+        <v>1.046290875135635</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2023-03</t>
+          <t>2023-08</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.00015454</v>
+        <v>0.000175874</v>
       </c>
       <c r="C56" t="n">
-        <v>0.000177074</v>
+        <v>0.000226954</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0001530074930263459</v>
+        <v>0.0001738426936797218</v>
       </c>
       <c r="E56" t="n">
-        <v>1.120358005367453</v>
+        <v>0.9922680033065064</v>
       </c>
       <c r="F56" t="n">
-        <v>1.120363908672792</v>
+        <v>0.9922710517260998</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2023-04</t>
+          <t>2023-09</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.000136055</v>
+        <v>0.000182553</v>
       </c>
       <c r="C57" t="n">
-        <v>0.000156356</v>
+        <v>0.000236753</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0001350899152397062</v>
+        <v>0.0001811446486847976</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9881607106432856</v>
+        <v>1.033183363511029</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9881658149266281</v>
+        <v>1.033186436020881</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2023-05</t>
+          <t>2023-10</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.000147545</v>
+        <v>0.000178597</v>
       </c>
       <c r="C58" t="n">
-        <v>0.000170063</v>
+        <v>0.000232783</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0001469161538204491</v>
+        <v>0.0001779067502698257</v>
       </c>
       <c r="E58" t="n">
-        <v>1.073569197111107</v>
+        <v>1.013965635562871</v>
       </c>
       <c r="F58" t="n">
-        <v>1.073574622291434</v>
+        <v>1.013968550223506</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2023-06</t>
+          <t>2023-11</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.000143656</v>
+        <v>0.000173752</v>
       </c>
       <c r="C59" t="n">
-        <v>0.000166071</v>
+        <v>0.000227604</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0001434516190248091</v>
+        <v>0.000173752</v>
       </c>
       <c r="E59" t="n">
-        <v>1.047171000389185</v>
+        <v>0.9895532512298802</v>
       </c>
       <c r="F59" t="n">
-        <v>1.047176166855264</v>
+        <v>0.9895559966218566</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2023-07</t>
+          <t>2023-12</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.00014498</v>
+        <v>0.000176886</v>
       </c>
       <c r="C60" t="n">
-        <v>0.000168099</v>
+        <v>0.00023287</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0001451865585176703</v>
+        <v>0.0001775722893824233</v>
       </c>
       <c r="E60" t="n">
-        <v>1.058733129725995</v>
+        <v>1.010561602797019</v>
       </c>
       <c r="F60" t="n">
-        <v>1.058738219150288</v>
+        <v>1.010564304557344</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2023-08</t>
+          <t>2023-13</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.000137437</v>
+        <v>0.000176474</v>
       </c>
       <c r="C61" t="n">
-        <v>0.000159825</v>
+        <v>0.000233492</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0001380252724951033</v>
+        <v>0.0001778460382677795</v>
       </c>
       <c r="E61" t="n">
-        <v>1.005456605920529</v>
+        <v>1.011369326977883</v>
       </c>
       <c r="F61" t="n">
-        <v>1.005461305490839</v>
+        <v>1.011371928283884</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2023-09</t>
+          <t>2023-14</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.000142934</v>
+        <v>0.000174287</v>
       </c>
       <c r="C62" t="n">
-        <v>0.00016671</v>
+        <v>0.000231755</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0001439551230415169</v>
+        <v>0.0001763234979232004</v>
       </c>
       <c r="E62" t="n">
-        <v>1.047547004584618</v>
+        <v>1.001967291250911</v>
       </c>
       <c r="F62" t="n">
-        <v>1.04755175544365</v>
+        <v>1.001969766192165</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2023-10</t>
+          <t>2023-15</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.00013591</v>
+        <v>0.000162784</v>
       </c>
       <c r="C63" t="n">
-        <v>0.000158988</v>
+        <v>0.000217543</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0001372712602799359</v>
+        <v>0.0001653250440595994</v>
       </c>
       <c r="E63" t="n">
-        <v>0.997849544359223</v>
+        <v>0.938770830875166</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9978539259865481</v>
+        <v>0.9387730535599438</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2023-11</t>
+          <t>2023-16</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.000135407</v>
+        <v>0.000147725</v>
       </c>
       <c r="C64" t="n">
-        <v>0.000158868</v>
+        <v>0.000198407</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0001371532034216676</v>
+        <v>0.0001506130705606076</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9959283757097551</v>
+        <v>0.8545963613714278</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9959326005137049</v>
+        <v>0.8545982968997444</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2023-12</t>
+          <t>2023-17</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.000139601</v>
+        <v>0.000153959</v>
       </c>
       <c r="C65" t="n">
-        <v>0.000164274</v>
+        <v>0.000207817</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0001418044956948241</v>
+        <v>0.0001575779616399733</v>
       </c>
       <c r="E65" t="n">
-        <v>1.028600603901111</v>
+        <v>0.8934518766731073</v>
       </c>
       <c r="F65" t="n">
-        <v>1.028604809509578</v>
+        <v>0.8934538080564249</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2023-13</t>
+          <t>2023-18</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.000143275</v>
+        <v>0.000162415</v>
       </c>
       <c r="C66" t="n">
-        <v>0.000169097</v>
+        <v>0.000220331</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0001459514851458206</v>
+        <v>0.000166877684845185</v>
       </c>
       <c r="E66" t="n">
-        <v>1.057543067972753</v>
+        <v>0.9454774107480255</v>
       </c>
       <c r="F66" t="n">
-        <v>1.057547225434009</v>
+        <v>0.9454793568192563</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2023-14</t>
+          <t>2023-19</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.000132853</v>
+        <v>0.000132701</v>
       </c>
       <c r="C67" t="n">
-        <v>0.000157262</v>
+        <v>0.000180923</v>
       </c>
       <c r="D67" t="n">
-        <v>0.000135720702285253</v>
+        <v>0.0001368762372708105</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9823511529464047</v>
+        <v>0.7749221313829677</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9823548565695258</v>
+        <v>0.7749236460781647</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2023-15</t>
+          <t>2023-20</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.000131827</v>
+        <v>0.000148257</v>
       </c>
       <c r="C68" t="n">
-        <v>0.000156509</v>
+        <v>0.000203144</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0001350565751207684</v>
+        <v>0.0001535149950692156</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9764860390414987</v>
+        <v>0.8684760572208017</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9764895600059038</v>
+        <v>0.868477664583452</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2023-16</t>
+          <t>2023-21</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.000122705</v>
+        <v>0.000144283</v>
       </c>
       <c r="C69" t="n">
-        <v>0.000146111</v>
+        <v>0.00019869</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0001260695649596511</v>
+        <v>0.0001499797038508069</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9105187536223887</v>
+        <v>0.8478451045975999</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9105218842678433</v>
+        <v>0.8478465855750932</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2023-17</t>
+          <t>2023-22</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.000120109</v>
+        <v>0.000138086</v>
       </c>
       <c r="C70" t="n">
-        <v>0.000143444</v>
+        <v>0.00019111</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0001237542653935742</v>
+        <v>0.0001440949332261887</v>
       </c>
       <c r="E70" t="n">
-        <v>0.8928242663579123</v>
+        <v>0.8139723662883067</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8928271842118348</v>
+        <v>0.8139737032997554</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2023-18</t>
+          <t>2023-23</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.000129525</v>
+        <v>0.000148321</v>
       </c>
       <c r="C71" t="n">
-        <v>0.000155148</v>
+        <v>0.000206303</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0001338365883219843</v>
+        <v>0.0001553758216893204</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9645101343940454</v>
+        <v>0.8770437772268783</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9645131199600842</v>
+        <v>0.8770451263574913</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2023-19</t>
+          <t>2023-24</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.000112564</v>
+        <v>0.000143012</v>
       </c>
       <c r="C72" t="n">
-        <v>0.000135231</v>
+        <v>0.000199916</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0001166426572679974</v>
+        <v>0.0001503955570139484</v>
       </c>
       <c r="E72" t="n">
-        <v>0.8396814255528701</v>
+        <v>0.8483004257269555</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8396838778048048</v>
+        <v>0.8483016420685772</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2023-20</t>
+          <t>2023-25</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.00012172</v>
+        <v>0.000155028</v>
       </c>
       <c r="C73" t="n">
-        <v>0.000146664</v>
+        <v>0.000217799</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0001264900784825063</v>
+        <v>0.0001636644680851098</v>
       </c>
       <c r="E73" t="n">
-        <v>0.909573885639702</v>
+        <v>0.9224565019301713</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9095763809871265</v>
+        <v>0.9224577281992424</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2023-21</t>
+          <t>2023-26</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.000114419</v>
+        <v>0.000141277</v>
       </c>
       <c r="C74" t="n">
-        <v>0.000138276</v>
+        <v>0.000199476</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0001192420124825935</v>
+        <v>0.0001497260805525879</v>
       </c>
       <c r="E74" t="n">
-        <v>0.8565139956568195</v>
+        <v>0.8432682281813552</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8565161922050878</v>
+        <v>0.8432692609890114</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2023-22</t>
+          <t>2023-27</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.000116261</v>
+        <v>0.000148852</v>
       </c>
       <c r="C75" t="n">
-        <v>0.000140918</v>
+        <v>0.000211225</v>
       </c>
       <c r="D75" t="n">
-        <v>0.000121507150014319</v>
+        <v>0.0001583661646269472</v>
       </c>
       <c r="E75" t="n">
-        <v>0.8718263549868257</v>
+        <v>0.8912662224577647</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8718284333494927</v>
+        <v>0.8912672207800224</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2023-23</t>
+          <t>2023-28</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.000125944</v>
+        <v>0.000155986</v>
       </c>
       <c r="C76" t="n">
-        <v>0.000153107</v>
+        <v>0.000222457</v>
       </c>
       <c r="D76" t="n">
-        <v>0.000132002420171409</v>
+        <v>0.0001666000313955729</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9460900239085601</v>
+        <v>0.9369078479067565</v>
       </c>
       <c r="F76" t="n">
-        <v>0.946092106984556</v>
+        <v>0.9369087992513458</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2023-24</t>
+          <t>2023-29</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.000118642</v>
+        <v>0.000138229</v>
       </c>
       <c r="C77" t="n">
-        <v>0.000144657</v>
+        <v>0.000198121</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0001247037465607091</v>
+        <v>0.0001482075596781807</v>
       </c>
       <c r="E77" t="n">
-        <v>0.8927954390154662</v>
+        <v>0.8328540235232674</v>
       </c>
       <c r="F77" t="n">
-        <v>0.8927972408830137</v>
+        <v>0.8328547819638896</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2023-25</t>
+          <t>2023-30</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.000131464</v>
+        <v>0.00013647</v>
       </c>
       <c r="C78" t="n">
-        <v>0.000160766</v>
+        <v>0.00019658</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0001385748813899856</v>
+        <v>0.0001468892842313463</v>
       </c>
       <c r="E78" t="n">
-        <v>0.9910108462025263</v>
+        <v>0.8248317456385673</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9910126631432314</v>
+        <v>0.8248324103331941</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2023-26</t>
+          <t>2023-31</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.00011292</v>
+        <v>0.00012804</v>
       </c>
       <c r="C79" t="n">
-        <v>0.000138498</v>
+        <v>0.000185362</v>
       </c>
       <c r="D79" t="n">
-        <v>0.0001193672459103527</v>
+        <v>0.0001383503688395348</v>
       </c>
       <c r="E79" t="n">
-        <v>0.852707505534378</v>
+        <v>0.7763048236068042</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8527089103391852</v>
+        <v>0.776305367813487</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2023-27</t>
+          <t>2023-32</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.000115547</v>
+        <v>0.000149402</v>
       </c>
       <c r="C80" t="n">
-        <v>0.00014214</v>
+        <v>0.000217372</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0001224925313137622</v>
+        <v>0.0001620588675983001</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8740679081070618</v>
+        <v>0.9086601138443445</v>
       </c>
       <c r="F80" t="n">
-        <v>0.8740691846534623</v>
+        <v>0.9086606555503038</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2023-28</t>
+          <t>2023-33</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.000121575</v>
+        <v>0.000175667</v>
       </c>
       <c r="C81" t="n">
-        <v>0.000149998</v>
+        <v>0.000256867</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0001292503847318836</v>
+        <v>0.0001912882552649019</v>
       </c>
       <c r="E81" t="n">
-        <v>0.921271716178203</v>
+        <v>1.071750426598994</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9212728885203517</v>
+        <v>1.071750953118626</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2023-29</t>
+          <t>2023-34</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.000118451</v>
+        <v>0.000156569</v>
       </c>
       <c r="C82" t="n">
-        <v>0.000146578</v>
+        <v>0.000230088</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0001262882452273127</v>
+        <v>0.0001711534398228618</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8991638955156196</v>
+        <v>0.9582254004302045</v>
       </c>
       <c r="F82" t="n">
-        <v>0.899164869969202</v>
+        <v>0.9582257706509055</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2023-30</t>
+          <t>2023-35</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.000107219</v>
+        <v>0.000126338</v>
       </c>
       <c r="C83" t="n">
-        <v>0.000133072</v>
+        <v>0.000186593</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0001146390505695796</v>
+        <v>0.0001386422457336413</v>
       </c>
       <c r="E83" t="n">
-        <v>0.815320367086238</v>
+        <v>0.7756294918795633</v>
       </c>
       <c r="F83" t="n">
-        <v>0.8153210961196332</v>
+        <v>0.7756297101668023</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2023-31</t>
+          <t>2023-36</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.000111416</v>
+        <v>0.000139704</v>
       </c>
       <c r="C84" t="n">
-        <v>0.00013869</v>
+        <v>0.000207366</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0001194661923018685</v>
+        <v>0.0001539047985518737</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8487118807952466</v>
+        <v>0.8603745758282142</v>
       </c>
       <c r="F84" t="n">
-        <v>0.8487124782072758</v>
+        <v>0.8603747276742519</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2023-32</t>
+          <t>2023-37</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.000120846</v>
+        <v>0.000138833</v>
       </c>
       <c r="C85" t="n">
-        <v>0.000150874</v>
+        <v>0.000207107</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0001299470336260779</v>
+        <v>0.0001535386652560339</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9221487337919982</v>
+        <v>0.8576890055921148</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9221492068623596</v>
+        <v>0.8576890669433838</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2023-33</t>
+          <t>2023-38</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.000139175</v>
+        <v>0.000147754</v>
       </c>
       <c r="C86" t="n">
-        <v>0.000174273</v>
+        <v>0.00022152</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0001500831551590513</v>
+        <v>0.0001640385917654711</v>
       </c>
       <c r="E86" t="n">
-        <v>1.0638630301295</v>
+        <v>0.9156611452055052</v>
       </c>
       <c r="F86" t="n">
-        <v>1.063863372205521</v>
+        <v>0.9156611145878115</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2023-34</t>
+          <t>2023-39</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.000126634</v>
+        <v>0.000153118</v>
       </c>
       <c r="C87" t="n">
-        <v>0.000159039</v>
+        <v>0.000230713</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0001369486253816244</v>
+        <v>0.0001706533295127182</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9696844753952703</v>
+        <v>0.9518755867191163</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9696846010248327</v>
+        <v>0.9518754549641955</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2023-35</t>
+          <t>2023-40</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.000103097</v>
+        <v>0.000166499</v>
       </c>
       <c r="C88" t="n">
-        <v>0.000129863</v>
+        <v>0.000252132</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0001118124107376922</v>
+        <v>0.0001862867132984335</v>
       </c>
       <c r="E88" t="n">
-        <v>0.7908272597487663</v>
+        <v>1.038302666858229</v>
       </c>
       <c r="F88" t="n">
-        <v>0.7908272100101402</v>
+        <v>1.03830241413266</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2023-36</t>
+          <t>2023-41</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.000114885</v>
+        <v>0.000148714</v>
       </c>
       <c r="C89" t="n">
-        <v>0.00014514</v>
+        <v>0.000226328</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0001249522102776696</v>
+        <v>0.0001670335990343469</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8827836646594913</v>
+        <v>0.9302990828159661</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8827834388713341</v>
+        <v>0.9302987587034688</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2023-37</t>
+          <t>2023-42</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.000117254</v>
+        <v>0.00016477</v>
       </c>
       <c r="C90" t="n">
-        <v>0.000148572</v>
+        <v>0.000252021</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0001278924515355043</v>
+        <v>0.0001857855182384851</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9025553994964824</v>
+        <v>1.033968422319676</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9025549942274093</v>
+        <v>1.033967953523227</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2023-38</t>
+          <t>2023-43</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.000125384</v>
+        <v>0.00015277</v>
       </c>
       <c r="C91" t="n">
-        <v>0.000159343</v>
+        <v>0.000234837</v>
       </c>
       <c r="D91" t="n">
-        <v>0.000137150058360387</v>
+        <v>0.0001729233052183204</v>
       </c>
       <c r="E91" t="n">
-        <v>0.966815182632482</v>
+        <v>0.9616689794808944</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9668145613333374</v>
+        <v>0.9616684424852928</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2023-39</t>
+          <t>2023-44</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.000119639</v>
+        <v>0.000160813</v>
       </c>
       <c r="C92" t="n">
-        <v>0.000152494</v>
+        <v>0.00024844</v>
       </c>
       <c r="D92" t="n">
-        <v>0.000131239111489902</v>
+        <v>0.0001827335687469489</v>
       </c>
       <c r="E92" t="n">
-        <v>0.9241216913475274</v>
+        <v>1.01546995015161</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9241209182860229</v>
+        <v>1.015469276480541</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2023-40</t>
+          <t>2023-45</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.000135103</v>
+        <v>0.000170642</v>
       </c>
       <c r="C93" t="n">
-        <v>0.000172715</v>
+        <v>0.000264947</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0001486250900962657</v>
+        <v>0.0001946546789978841</v>
       </c>
       <c r="E93" t="n">
-        <v>1.045385207417965</v>
+        <v>1.080911774947295</v>
       </c>
       <c r="F93" t="n">
-        <v>1.045384129908364</v>
+        <v>1.080910944352718</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2023-41</t>
+          <t>2023-46</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.000126479</v>
+        <v>0.000177802</v>
       </c>
       <c r="C94" t="n">
-        <v>0.000162169</v>
+        <v>0.000277448</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0001395346901530127</v>
+        <v>0.0002036091493559278</v>
       </c>
       <c r="E94" t="n">
-        <v>0.9803579529667609</v>
+        <v>1.129794221674025</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9803567518548105</v>
+        <v>1.129793234871616</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2023-42</t>
+          <t>2023-47</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.000127281</v>
+        <v>0.00016669</v>
       </c>
       <c r="C95" t="n">
-        <v>0.00016368</v>
+        <v>0.000261411</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0001408198829054011</v>
+        <v>0.000191624893757869</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9882905964214087</v>
+        <v>1.062504175601952</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9882891931936291</v>
+        <v>1.062503135991222</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2023-43</t>
+          <t>2023-48</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.000123367</v>
+        <v>0.00017073</v>
       </c>
       <c r="C96" t="n">
-        <v>0.000159118</v>
+        <v>0.000269089</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0001368787513956895</v>
+        <v>0.0001970307241930985</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9595660238612748</v>
+        <v>1.091664858320368</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9595644744146721</v>
+        <v>1.091663675530646</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2023-44</t>
+          <t>2023-49</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.000134648</v>
+        <v>0.000192164</v>
       </c>
       <c r="C97" t="n">
-        <v>0.000174183</v>
+        <v>0.000304389</v>
       </c>
       <c r="D97" t="n">
-        <v>0.0001498213027422069</v>
+        <v>0.0002226270216697089</v>
       </c>
       <c r="E97" t="n">
-        <v>1.04913285639488</v>
+        <v>1.232565225117328</v>
       </c>
       <c r="F97" t="n">
-        <v>1.049130957666908</v>
+        <v>1.232563760219551</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2023-45</t>
+          <t>2023-50</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.000128378</v>
+        <v>0.00016767</v>
       </c>
       <c r="C98" t="n">
-        <v>0.000166563</v>
+        <v>0.000266922</v>
       </c>
       <c r="D98" t="n">
-        <v>0.0001432520674760599</v>
+        <v>0.0001950037410646629</v>
       </c>
       <c r="E98" t="n">
-        <v>1.002018787603974</v>
+        <v>1.078826572273562</v>
       </c>
       <c r="F98" t="n">
-        <v>1.002016778510596</v>
+        <v>1.07882517679137</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2023-46</t>
+          <t>2023-51</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.000144904</v>
+        <v>0.000200263</v>
       </c>
       <c r="C99" t="n">
-        <v>0.000188563</v>
+        <v>0.000320406</v>
       </c>
       <c r="D99" t="n">
-        <v>0.0001621538625627841</v>
+        <v>0.0002338137403358645</v>
       </c>
       <c r="E99" t="n">
-        <v>1.132974852384145</v>
+        <v>1.292573887705998</v>
       </c>
       <c r="F99" t="n">
-        <v>1.132972359345228</v>
+        <v>1.292572079985432</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2023-47</t>
+          <t>2023-52</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.000133131</v>
+        <v>0.000191379</v>
       </c>
       <c r="C100" t="n">
-        <v>0.000173755</v>
+        <v>0.000307727</v>
       </c>
       <c r="D100" t="n">
-        <v>0.0001494041803385629</v>
+        <v>0.0002243082904367699</v>
       </c>
       <c r="E100" t="n">
-        <v>1.042734376950541</v>
+        <v>1.239102778923391</v>
       </c>
       <c r="F100" t="n">
-        <v>1.042731878596583</v>
+        <v>1.239100915846623</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2023-48</t>
+          <t>2024-01</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.000145207</v>
+        <v>0.000196771</v>
       </c>
       <c r="C101" t="n">
-        <v>0.000190078</v>
+        <v>0.000317983</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0001634209530687733</v>
+        <v>0.0002315228553763729</v>
       </c>
       <c r="E101" t="n">
-        <v>1.139296123197687</v>
+        <v>1.278004938720912</v>
       </c>
       <c r="F101" t="n">
-        <v>1.139293170580486</v>
+        <v>1.278002882927233</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2023-49</t>
+          <t>2024-02</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.000154667</v>
+        <v>0.000159763</v>
       </c>
       <c r="C102" t="n">
-        <v>0.000203061</v>
+        <v>0.000259471</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0001745639171859666</v>
+        <v>0.0001887081760809532</v>
       </c>
       <c r="E102" t="n">
-        <v>1.215629607562818</v>
+        <v>1.040892874635776</v>
       </c>
       <c r="F102" t="n">
-        <v>1.21562621914357</v>
+        <v>1.040891090937091</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2023-50</t>
+          <t>2024-03</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.000133975</v>
+        <v>0.00017452</v>
       </c>
       <c r="C103" t="n">
-        <v>0.000176416</v>
+        <v>0.000284859</v>
       </c>
       <c r="D103" t="n">
-        <v>0.000151641200426394</v>
+        <v>0.0002069385716501475</v>
       </c>
       <c r="E103" t="n">
-        <v>1.054828579960077</v>
+        <v>1.140600143598363</v>
       </c>
       <c r="F103" t="n">
-        <v>1.05482543315192</v>
+        <v>1.140598069243609</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2023-51</t>
+          <t>2024-04</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.000158383</v>
+        <v>0.000176783</v>
       </c>
       <c r="C104" t="n">
-        <v>0.000209174</v>
+        <v>0.000289999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.0001797788689808523</v>
+        <v>0.0002104352427174218</v>
       </c>
       <c r="E104" t="n">
-        <v>1.249168948103967</v>
+        <v>1.159009794538149</v>
       </c>
       <c r="F104" t="n">
-        <v>1.249164976752167</v>
+        <v>1.159007564973109</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2023-52</t>
+          <t>2024-05</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.000146604</v>
+        <v>0.000163863</v>
       </c>
       <c r="C105" t="n">
-        <v>0.000194192</v>
+        <v>0.000270153</v>
       </c>
       <c r="D105" t="n">
-        <v>0.0001668831658515483</v>
+        <v>0.000195812589195232</v>
       </c>
       <c r="E105" t="n">
-        <v>1.158278266509246</v>
+        <v>1.077670257495002</v>
       </c>
       <c r="F105" t="n">
-        <v>1.158274357053058</v>
+        <v>1.077668071214219</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2024-01</t>
+          <t>2024-06</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.000148987</v>
+        <v>0.00017729</v>
       </c>
       <c r="C106" t="n">
-        <v>0.000197933</v>
+        <v>0.000293753</v>
       </c>
       <c r="D106" t="n">
-        <v>0.0001700794004679727</v>
+        <v>0.0002126795247665827</v>
       </c>
       <c r="E106" t="n">
-        <v>1.179152340461083</v>
+        <v>1.169627643533715</v>
       </c>
       <c r="F106" t="n">
-        <v>1.179148129307697</v>
+        <v>1.169625147852261</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2024-02</t>
+          <t>2024-07</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.000126445</v>
+        <v>0.000159005</v>
       </c>
       <c r="C107" t="n">
-        <v>0.000168483</v>
+        <v>0.000264778</v>
       </c>
       <c r="D107" t="n">
-        <v>0.000144757686199169</v>
+        <v>0.0001914846455184996</v>
       </c>
       <c r="E107" t="n">
-        <v>1.002484441987294</v>
+        <v>1.052282998956895</v>
       </c>
       <c r="F107" t="n">
-        <v>1.00248066511231</v>
+        <v>1.05228064313697</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2024-03</t>
+          <t>2024-08</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.000136957</v>
+        <v>0.000149648</v>
       </c>
       <c r="C108" t="n">
-        <v>0.000183031</v>
+        <v>0.000250445</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0001572392042617496</v>
+        <v>0.0001809155195748897</v>
       </c>
       <c r="E108" t="n">
-        <v>1.087713801673035</v>
+        <v>0.9934615843389831</v>
       </c>
       <c r="F108" t="n">
-        <v>1.087709490247702</v>
+        <v>0.9934592558629719</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2024-04</t>
+          <t>2024-09</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.0001417</v>
+        <v>0.000142521</v>
       </c>
       <c r="C109" t="n">
-        <v>0.000189931</v>
+        <v>0.000239713</v>
       </c>
       <c r="D109" t="n">
-        <v>0.0001631484996257998</v>
+        <v>0.0001729678951421364</v>
       </c>
       <c r="E109" t="n">
-        <v>1.127339350775869</v>
+        <v>0.949111882669477</v>
       </c>
       <c r="F109" t="n">
-        <v>1.127334661000764</v>
+        <v>0.9491095584544484</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2024-05</t>
+          <t>2024-10</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.000132796</v>
+        <v>0.000148798</v>
       </c>
       <c r="C110" t="n">
-        <v>0.000178523</v>
+        <v>0.000251525</v>
       </c>
       <c r="D110" t="n">
-        <v>0.0001533327266537786</v>
+        <v>0.0001812865007839271</v>
       </c>
       <c r="E110" t="n">
-        <v>1.058337562675347</v>
+        <v>0.9940175040712382</v>
       </c>
       <c r="F110" t="n">
-        <v>1.058332952159352</v>
+        <v>0.9940149654873555</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2024-06</t>
+          <t>2024-11</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.000135176</v>
+        <v>0.000149714</v>
       </c>
       <c r="C111" t="n">
-        <v>0.000182262</v>
+        <v>0.000254342</v>
       </c>
       <c r="D111" t="n">
-        <v>0.0001565258558188512</v>
+        <v>0.0001831101924076832</v>
       </c>
       <c r="E111" t="n">
-        <v>1.079178285333355</v>
+        <v>1.00326980238384</v>
       </c>
       <c r="F111" t="n">
-        <v>1.079173372097496</v>
+        <v>1.003267134796352</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2024-07</t>
+          <t>2024-12</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.000122855</v>
+        <v>0.000130514</v>
       </c>
       <c r="C112" t="n">
-        <v>0.000166139</v>
+        <v>0.000222836</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0001426645146308141</v>
+        <v>0.0001602466421983244</v>
       </c>
       <c r="E112" t="n">
-        <v>0.9825186992802356</v>
+        <v>0.877345828044497</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9825140331255863</v>
+        <v>0.8773434031267321</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2024-08</t>
+          <t>2024-13</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.000117356</v>
+        <v>0.000144838</v>
       </c>
       <c r="C113" t="n">
-        <v>0.000159173</v>
+        <v>0.000248531</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0001366674390266582</v>
+        <v>0.000178523786612721</v>
       </c>
       <c r="E113" t="n">
-        <v>0.9401727515659597</v>
+        <v>0.9766852358452927</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9401681018177157</v>
+        <v>0.9766824337783275</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2024-09</t>
+          <t>2024-14</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.000107391</v>
+        <v>0.000131445</v>
       </c>
       <c r="C114" t="n">
-        <v>0.000146089</v>
+        <v>0.000226679</v>
       </c>
       <c r="D114" t="n">
-        <v>0.0001254192719371131</v>
+        <v>0.0001626444972087718</v>
       </c>
       <c r="E114" t="n">
-        <v>0.8618359667031117</v>
+        <v>0.8891490373116074</v>
       </c>
       <c r="F114" t="n">
-        <v>0.8618315350400539</v>
+        <v>0.8891463929935355</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2024-10</t>
+          <t>2024-15</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.000123685</v>
+        <v>0.000142195</v>
       </c>
       <c r="C115" t="n">
-        <v>0.000168754</v>
+        <v>0.000246447</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0001448605244901892</v>
+        <v>0.0001766287363520828</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9943244559984478</v>
+        <v>0.9648797807716721</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9943191476633564</v>
+        <v>0.9648768098885238</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2024-11</t>
+          <t>2024-16</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.000121074</v>
+        <v>0.000146241</v>
       </c>
       <c r="C116" t="n">
-        <v>0.000165681</v>
+        <v>0.00025473</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0001422068582045808</v>
+        <v>0.0001823593003212859</v>
       </c>
       <c r="E116" t="n">
-        <v>0.975026305686248</v>
+        <v>0.9954430451230957</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9750209087437406</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>2024-12</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>0.000108217</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.000148525</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.0001274681762219086</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0.8730020864872817</v>
-      </c>
-      <c r="F117" t="n">
-        <v>0.8729970826653851</v>
+        <v>0.9954398755821035</v>
       </c>
     </row>
   </sheetData>
@@ -3071,7 +3049,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-8.877198008865864</v>
+        <v>-8.63080551131233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -3091,7 +3069,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.002847448081081916</v>
+        <v>-0.003872332855820278</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3111,7 +3089,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>57.5</v>
+        <v>57</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3131,7 +3109,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-8.323388060048755</v>
+        <v>-7.9306262378093</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -3151,7 +3129,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.001736859552757285</v>
+        <v>-0.003127804535891093</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3171,7 +3149,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.0565202598132998</v>
+        <v>-0.09837518444799552</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -3191,7 +3169,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>8.623572230105466</v>
+        <v>5.653607367450982</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -3211,7 +3189,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-8.446280095236681</v>
+        <v>-8.05022281338894</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -3231,7 +3209,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.07093073171885156</v>
+        <v>-0.05491529906278651</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -3251,7 +3229,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.004130961514776862</v>
+        <v>0.1082490153532271</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -3271,7 +3249,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>38.33333333333334</v>
+        <v>38</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -3373,7 +3351,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-8.323413954909164</v>
+        <v>-7.930648525626751</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -3393,7 +3371,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.001736662780041393</v>
+        <v>-0.003127699503525955</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -3413,7 +3391,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.05650911138394329</v>
+        <v>-0.09836054126441914</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -3433,7 +3411,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8.625132256684637</v>
+        <v>5.65432870282719</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -3453,7 +3431,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-8.446280095236681</v>
+        <v>-8.05022281338894</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -3473,7 +3451,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-0.07093073171885156</v>
+        <v>-0.05491529906278651</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3493,7 +3471,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.004130961514776862</v>
+        <v>0.1082490153532271</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3513,7 +3491,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>38.33333333333334</v>
+        <v>38</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
